--- a/src/main/resources/com/puyuan/rules/xlsx_demo/xslx_demo.xlsx
+++ b/src/main/resources/com/puyuan/rules/xlsx_demo/xslx_demo.xlsx
@@ -19,16 +19,16 @@
     <t>RuleSet</t>
   </si>
   <si>
-    <t>com.puyuan.rules.xlsx_demo</t>
+    <t>com.ruleengine.hysc.hysc_rules.xlsx_demo</t>
   </si>
   <si>
     <t>Import</t>
   </si>
   <si>
-    <t>com.puyuan.iotmanager.fact.AlarmBean</t>
-  </si>
-  <si>
-    <t>com.puyuan.iotmanager.fact.InsertValue</t>
+    <t>com.ruleengine.hysc.fact.AlarmBean</t>
+  </si>
+  <si>
+    <t>com.ruleengine.hysc.fact.InsertValue</t>
   </si>
   <si>
     <t>Notes</t>
@@ -59,7 +59,8 @@
     <t>$value.collectValue == $1</t>
   </si>
   <si>
-    <t>System.out.println("$1");</t>
+    <t xml:space="preserve">System.out.println("$1");$value.setGrade("$1");
+</t>
   </si>
   <si>
     <t>小于</t>
@@ -267,18 +268,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -464,7 +465,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -492,6 +493,19 @@
         <color auto="1"/>
       </left>
       <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -623,7 +637,7 @@
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -647,7 +661,7 @@
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -656,7 +670,7 @@
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -674,19 +688,19 @@
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -722,7 +736,7 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -740,13 +754,13 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -755,15 +769,15 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -772,20 +786,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1109,7 +1132,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
@@ -1131,8 +1154,8 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
@@ -1141,8 +1164,8 @@
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
@@ -1151,155 +1174,182 @@
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="35" customHeight="1" spans="1:4">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" ht="22" customHeight="1" spans="1:4">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="15" customHeight="1" spans="1:4">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" ht="22" customHeight="1" spans="1:4">
-      <c r="A10" s="4">
+      <c r="A10" s="6">
         <v>15</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6">
         <v>55</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="4">
+      <c r="A13" s="6">
         <v>55</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4" t="s">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="C14" s="6">
+        <v>55</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B16" s="6">
         <v>15</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D17" s="6" t="s">
         <v>23</v>
       </c>
     </row>
+    <row r="18" customFormat="1" spans="1:4">
+      <c r="A18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6">
+        <v>15</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
     <mergeCell ref="A7:C7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/src/main/resources/com/puyuan/rules/xlsx_demo/xslx_demo.xlsx
+++ b/src/main/resources/com/puyuan/rules/xlsx_demo/xslx_demo.xlsx
@@ -796,7 +796,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1135,7 +1135,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="3"/>
@@ -1181,10 +1181,10 @@
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="5"/>
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4">
@@ -1346,10 +1346,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
     <mergeCell ref="A7:C7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
